--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cde-leucocyctes-in-urine-dipstick-test</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-leucocyctes-in-urine-dipstick-test</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-cmo-urine-measurement</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-urine-measurement</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1857,7 +1857,7 @@
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-qualifier-for-presence</t>
+    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-qualifier-for-presence</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2604,7 +2604,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.91796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.23828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.85546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-leucocyctes-in-urine-dipstick-test</t>
+    <t>http://fhir.org/de/StructureDefinition/cde-leucocyctes-in-urine-dipstick-test</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-urine-measurement</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-urine-measurement</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1857,7 +1857,7 @@
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-qualifier-for-presence</t>
+    <t>http://fhir.org/de/ValueSet/vs-qualifier-for-presence</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2604,7 +2604,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.23828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.85546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cde-leucocyctes-in-urine-dipstick-test</t>
+    <t>http://hl7.org/de/StructureDefinition/cde-leucocyctes-in-urine-dipstick-test</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-urine-measurement</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-cmo-urine-measurement</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1857,7 +1857,7 @@
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
-    <t>http://fhir.org/de/ValueSet/vs-qualifier-for-presence</t>
+    <t>http://hl7.org/de/ValueSet/vs-qualifier-for-presence</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T17:46:04+01:00</t>
+    <t>2023-03-17T18:03:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/de/StructureDefinition/cls-obo-cmo-urine-measurement</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-umls-urine-measurement</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -4454,7 +4454,7 @@
         <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -5906,7 +5906,7 @@
         <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>93</v>
@@ -7358,7 +7358,7 @@
         <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>93</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>93</v>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9649,7 +9649,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
+++ b/output/StructureDefinition-cde-leucocyctes-in-urine-dipstick-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
